--- a/Mifos Automation Excels/Client/2386-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-PREPAY-ON-15-JAN-DLR-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2386-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-PREPAY-ON-15-JAN-DLR-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -208,6 +208,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -296,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -339,6 +342,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,7 +809,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -990,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,15 +1126,15 @@
       <c r="J3" s="8">
         <v>0</v>
       </c>
-      <c r="K3" s="8">
-        <v>832.62</v>
+      <c r="K3" s="22">
+        <v>15.34</v>
       </c>
       <c r="L3" s="11">
         <v>10015.34</v>
       </c>
       <c r="M3" s="11"/>
-      <c r="N3" s="11">
-        <v>9182.7199999999993</v>
+      <c r="N3" s="23">
+        <v>10000</v>
       </c>
       <c r="O3" s="8">
         <v>0</v>
@@ -1139,7 +1146,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1148,7 +1155,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
